--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl12-Cxcr3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cxcl12-Cxcr3.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H2">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I2">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J2">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -564,22 +564,22 @@
         <v>0.191103</v>
       </c>
       <c r="O2">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P2">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q2">
-        <v>10.695921267416</v>
+        <v>9.311208931529999</v>
       </c>
       <c r="R2">
-        <v>96.263291406744</v>
+        <v>83.80088038376999</v>
       </c>
       <c r="S2">
-        <v>0.0373814890501136</v>
+        <v>0.006521121156788</v>
       </c>
       <c r="T2">
-        <v>0.0373814890501136</v>
+        <v>0.006521121156787998</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,46 +602,46 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H3">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I3">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J3">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M3">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N3">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O3">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P3">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q3">
-        <v>34.17150476280801</v>
+        <v>394.87915083639</v>
       </c>
       <c r="R3">
-        <v>307.543542865272</v>
+        <v>3553.91235752751</v>
       </c>
       <c r="S3">
-        <v>0.1194269945692496</v>
+        <v>0.2765542910517136</v>
       </c>
       <c r="T3">
-        <v>0.1194269945692496</v>
+        <v>0.2765542910517136</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,46 +664,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>167.908216</v>
+        <v>146.17053</v>
       </c>
       <c r="H4">
-        <v>503.724648</v>
+        <v>438.51159</v>
       </c>
       <c r="I4">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="J4">
-        <v>0.4369446032063231</v>
+        <v>0.4047435297111188</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N4">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O4">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P4">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q4">
-        <v>80.155016704784</v>
+        <v>173.72430831063</v>
       </c>
       <c r="R4">
-        <v>721.3951503430561</v>
+        <v>1563.51877479567</v>
       </c>
       <c r="S4">
-        <v>0.2801361195869599</v>
+        <v>0.1216681175026172</v>
       </c>
       <c r="T4">
-        <v>0.2801361195869599</v>
+        <v>0.1216681175026172</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,13 +729,13 @@
         <v>210.785085</v>
       </c>
       <c r="H5">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I5">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J5">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -750,10 +750,10 @@
         <v>0.191103</v>
       </c>
       <c r="O5">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P5">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q5">
         <v>13.427220699585</v>
@@ -762,10 +762,10 @@
         <v>120.844986296265</v>
       </c>
       <c r="S5">
-        <v>0.04692718757046865</v>
+        <v>0.009403777063193633</v>
       </c>
       <c r="T5">
-        <v>0.04692718757046865</v>
+        <v>0.009403777063193631</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,43 +791,43 @@
         <v>210.785085</v>
       </c>
       <c r="H6">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I6">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J6">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N6">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O6">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P6">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q6">
-        <v>42.897505003605</v>
+        <v>569.435134248855</v>
       </c>
       <c r="R6">
-        <v>386.0775450324451</v>
+        <v>5124.916208239695</v>
       </c>
       <c r="S6">
-        <v>0.1499237488270009</v>
+        <v>0.3988048736393731</v>
       </c>
       <c r="T6">
-        <v>0.1499237488270009</v>
+        <v>0.3988048736393731</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,43 +853,43 @@
         <v>210.785085</v>
       </c>
       <c r="H7">
-        <v>632.3552550000001</v>
+        <v>632.3552549999999</v>
       </c>
       <c r="I7">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="J7">
-        <v>0.5485223267879643</v>
+        <v>0.5836600531814327</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N7">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O7">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P7">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q7">
-        <v>100.62331916679</v>
+        <v>250.518986924535</v>
       </c>
       <c r="R7">
-        <v>905.6098725011102</v>
+        <v>2254.670882320815</v>
       </c>
       <c r="S7">
-        <v>0.3516713903904947</v>
+        <v>0.175451402478866</v>
       </c>
       <c r="T7">
-        <v>0.3516713903904947</v>
+        <v>0.175451402478866</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,22 +906,22 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H8">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I8">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J8">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -936,22 +936,22 @@
         <v>0.191103</v>
       </c>
       <c r="O8">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P8">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q8">
-        <v>0.003018344483</v>
+        <v>0.03500329606033333</v>
       </c>
       <c r="R8">
-        <v>0.027165100347</v>
+        <v>0.315029664543</v>
       </c>
       <c r="S8">
-        <v>1.05489006902529E-05</v>
+        <v>2.451461847488008E-05</v>
       </c>
       <c r="T8">
-        <v>1.05489006902529E-05</v>
+        <v>2.451461847488008E-05</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,52 +968,52 @@
         <v>22</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H9">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I9">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J9">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N9">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O9">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P9">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q9">
-        <v>0.009643056479000002</v>
+        <v>1.484455125689889</v>
       </c>
       <c r="R9">
-        <v>0.086787508311</v>
+        <v>13.360096131209</v>
       </c>
       <c r="S9">
-        <v>3.370180101058756E-05</v>
+        <v>0.001039640695168901</v>
       </c>
       <c r="T9">
-        <v>3.370180101058756E-05</v>
+        <v>0.001039640695168901</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,52 +1030,52 @@
         <v>24</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.047383</v>
+        <v>0.5494936666666667</v>
       </c>
       <c r="H10">
-        <v>0.142149</v>
+        <v>1.648481</v>
       </c>
       <c r="I10">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="J10">
-        <v>0.0001233039491868891</v>
+        <v>0.00152153793381314</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N10">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O10">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P10">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q10">
-        <v>0.022619412242</v>
+        <v>0.6530756039725556</v>
       </c>
       <c r="R10">
-        <v>0.203574710178</v>
+        <v>5.877680435753001</v>
       </c>
       <c r="S10">
-        <v>7.905324748604869E-05</v>
+        <v>0.0004573826201693595</v>
       </c>
       <c r="T10">
-        <v>7.905324748604868E-05</v>
+        <v>0.0004573826201693594</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H11">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I11">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J11">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1122,22 +1122,22 @@
         <v>0.191103</v>
       </c>
       <c r="O11">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P11">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q11">
-        <v>0.3445681367479999</v>
+        <v>0.217223212844</v>
       </c>
       <c r="R11">
-        <v>3.101113230732</v>
+        <v>1.955008915596</v>
       </c>
       <c r="S11">
-        <v>0.001204241290565816</v>
+        <v>0.0001521326499532975</v>
       </c>
       <c r="T11">
-        <v>0.001204241290565816</v>
+        <v>0.0001521326499532975</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,46 +1160,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H12">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I12">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J12">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N12">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O12">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P12">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q12">
-        <v>1.100831936924</v>
+        <v>9.212221362505334</v>
       </c>
       <c r="R12">
-        <v>9.907487432316</v>
+        <v>82.909992262548</v>
       </c>
       <c r="S12">
-        <v>0.003847329834177187</v>
+        <v>0.006451795042921097</v>
       </c>
       <c r="T12">
-        <v>0.003847329834177187</v>
+        <v>0.006451795042921097</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,46 +1222,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>5.409147999999999</v>
+        <v>3.410044</v>
       </c>
       <c r="H13">
-        <v>16.227444</v>
+        <v>10.230132</v>
       </c>
       <c r="I13">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="J13">
-        <v>0.01407613089370371</v>
+        <v>0.009442349596941478</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N13">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O13">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P13">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q13">
-        <v>2.582186617352</v>
+        <v>4.052852070857333</v>
       </c>
       <c r="R13">
-        <v>23.239679556168</v>
+        <v>36.475668637716</v>
       </c>
       <c r="S13">
-        <v>0.009024559768960709</v>
+        <v>0.002838421904067083</v>
       </c>
       <c r="T13">
-        <v>0.009024559768960707</v>
+        <v>0.002838421904067083</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H14">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I14">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J14">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1308,22 +1308,22 @@
         <v>0.191103</v>
       </c>
       <c r="O14">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="P14">
-        <v>0.08555200997061461</v>
+        <v>0.01611173663836548</v>
       </c>
       <c r="Q14">
-        <v>0.008167020275333333</v>
+        <v>0.014551474234</v>
       </c>
       <c r="R14">
-        <v>0.073503182478</v>
+        <v>0.130963268106</v>
       </c>
       <c r="S14">
-        <v>2.854315877627849E-05</v>
+        <v>1.019114995566966E-05</v>
       </c>
       <c r="T14">
-        <v>2.854315877627849E-05</v>
+        <v>1.019114995566965E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,52 +1340,52 @@
         <v>22</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H15">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I15">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J15">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M15">
-        <v>0.203513</v>
+        <v>2.701496333333333</v>
       </c>
       <c r="N15">
-        <v>0.6105390000000001</v>
+        <v>8.104489000000001</v>
       </c>
       <c r="O15">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="P15">
-        <v>0.2733229651834303</v>
+        <v>0.68328279700753</v>
       </c>
       <c r="Q15">
-        <v>0.02609213037933334</v>
+        <v>0.6171136134086668</v>
       </c>
       <c r="R15">
-        <v>0.234829173414</v>
+        <v>5.554022520678001</v>
       </c>
       <c r="S15">
-        <v>9.119015199191166E-05</v>
+        <v>0.0004321965783534283</v>
       </c>
       <c r="T15">
-        <v>9.119015199191168E-05</v>
+        <v>0.0004321965783534283</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,52 +1402,52 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.1282086666666667</v>
+        <v>0.228434</v>
       </c>
       <c r="H16">
-        <v>0.384626</v>
+        <v>0.6853020000000001</v>
       </c>
       <c r="I16">
-        <v>0.0003336351628218026</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="J16">
-        <v>0.0003336351628218027</v>
+        <v>0.0006325295766939459</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.477374</v>
+        <v>1.188504333333333</v>
       </c>
       <c r="N16">
-        <v>1.432122</v>
+        <v>3.565513</v>
       </c>
       <c r="O16">
-        <v>0.6411250248459551</v>
+        <v>0.3006054663541045</v>
       </c>
       <c r="P16">
-        <v>0.641125024845955</v>
+        <v>0.3006054663541044</v>
       </c>
       <c r="Q16">
-        <v>0.06120348404133334</v>
+        <v>0.2714947988806667</v>
       </c>
       <c r="R16">
-        <v>0.5508313563720001</v>
+        <v>2.443453189926001</v>
       </c>
       <c r="S16">
-        <v>0.0002139018520536125</v>
+        <v>0.0001901418483848479</v>
       </c>
       <c r="T16">
-        <v>0.0002139018520536125</v>
+        <v>0.0001901418483848479</v>
       </c>
     </row>
   </sheetData>
